--- a/config_12.15/rank_server.xlsx
+++ b/config_12.15/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="239">
   <si>
     <t>id|</t>
   </si>
@@ -994,10 +994,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>礼盒收集榜</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>38</t>
     </r>
@@ -1044,6 +1040,66 @@
   </si>
   <si>
     <t>xiaoxiaole_xiyou_award</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ocean_explore_week_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海探险排行榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>week</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5个高级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个初级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5个初级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个中级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个高级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dz_jzsjb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒收集榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子收集榜</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1179,7 +1235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1301,6 +1357,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1578,11 +1637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2332,13 +2391,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>214</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="E21" s="41">
         <v>1607385600</v>
@@ -2360,6 +2419,74 @@
       </c>
       <c r="L21" s="41">
         <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1604246400</v>
+      </c>
+      <c r="F22" s="14">
+        <v>2555555555</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="14">
+        <v>21</v>
+      </c>
+      <c r="L22" s="14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="46">
+        <v>22</v>
+      </c>
+      <c r="B23" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="E23" s="46">
+        <v>1607990400</v>
+      </c>
+      <c r="F23" s="46">
+        <v>1608566399</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="46">
+        <v>22</v>
+      </c>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46">
+        <v>22</v>
+      </c>
+      <c r="L23" s="46">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2371,11 +2498,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2843,7 +2970,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2939,6 +3066,20 @@
       </c>
       <c r="E41" s="42"/>
       <c r="F41" s="42"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="23">
+        <v>41</v>
+      </c>
+      <c r="B42" s="23">
+        <v>22</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" s="23">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2949,10 +3090,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A27" sqref="A27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3332,7 +3473,7 @@
         <v>171</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
@@ -3403,6 +3544,23 @@
         <v>9</v>
       </c>
       <c r="E26" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="23">
+        <v>26</v>
+      </c>
+      <c r="B27" s="23">
+        <v>23</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="23">
+        <v>9</v>
+      </c>
+      <c r="E27" s="23">
         <v>2</v>
       </c>
     </row>
@@ -3512,11 +3670,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4013,6 +4171,52 @@
         <v>10</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2">
+        <v>100</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2">
+        <v>180</v>
+      </c>
+      <c r="G22" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="23">
+        <v>20</v>
+      </c>
+      <c r="D23" s="23">
+        <v>100</v>
+      </c>
+      <c r="E23" s="23">
+        <v>20</v>
+      </c>
+      <c r="F23" s="23">
+        <v>180</v>
+      </c>
+      <c r="G23" s="23">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4021,11 +4225,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4300,6 +4504,34 @@
         <v>18</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="23">
+        <v>20</v>
+      </c>
+      <c r="B21" s="23">
+        <v>24</v>
+      </c>
+      <c r="C21" s="23">
+        <v>1</v>
+      </c>
+      <c r="D21" s="23">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4309,11 +4541,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4603,6 +4835,28 @@
         <v>1607961599</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="23">
+        <v>24</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="46">
+        <v>1608566399</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4611,11 +4865,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G123" sqref="G123"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7398,36 +7652,266 @@
       <c r="I124" s="42"/>
     </row>
     <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="6"/>
+      <c r="A125" s="2">
+        <v>124</v>
+      </c>
+      <c r="B125" s="2">
+        <v>19</v>
+      </c>
+      <c r="C125" s="2">
+        <v>1</v>
+      </c>
+      <c r="D125" s="2">
+        <v>1</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2">
+        <v>109</v>
+      </c>
+      <c r="H125" s="22" t="s">
+        <v>227</v>
+      </c>
       <c r="I125" s="5"/>
     </row>
     <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="6"/>
+      <c r="A126" s="2">
+        <v>125</v>
+      </c>
+      <c r="B126" s="2">
+        <v>19</v>
+      </c>
+      <c r="C126" s="2">
+        <v>2</v>
+      </c>
+      <c r="D126" s="2">
+        <v>2</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2">
+        <v>110</v>
+      </c>
+      <c r="H126" s="22" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="6"/>
+      <c r="A127" s="2">
+        <v>126</v>
+      </c>
+      <c r="B127" s="2">
+        <v>19</v>
+      </c>
+      <c r="C127" s="2">
+        <v>3</v>
+      </c>
+      <c r="D127" s="2">
+        <v>3</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2">
+        <v>111</v>
+      </c>
+      <c r="H127" s="22" t="s">
+        <v>136</v>
+      </c>
       <c r="I127" s="5"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>127</v>
+      </c>
+      <c r="B128" s="2">
+        <v>19</v>
+      </c>
+      <c r="C128" s="2">
+        <v>4</v>
+      </c>
+      <c r="D128" s="2">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2">
+        <v>112</v>
+      </c>
+      <c r="H128" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>128</v>
+      </c>
+      <c r="B129" s="2">
+        <v>19</v>
+      </c>
+      <c r="C129" s="2">
+        <v>11</v>
+      </c>
+      <c r="D129" s="2">
+        <v>20</v>
+      </c>
+      <c r="G129" s="2">
+        <v>113</v>
+      </c>
+      <c r="H129" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="23">
+        <v>129</v>
+      </c>
+      <c r="B130" s="23">
+        <v>20</v>
+      </c>
+      <c r="C130" s="23">
+        <v>1</v>
+      </c>
+      <c r="D130" s="23">
+        <v>1</v>
+      </c>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="23">
+        <v>114</v>
+      </c>
+      <c r="H130" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="23">
+        <v>130</v>
+      </c>
+      <c r="B131" s="23">
+        <v>20</v>
+      </c>
+      <c r="C131" s="23">
+        <v>2</v>
+      </c>
+      <c r="D131" s="23">
+        <v>2</v>
+      </c>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="23">
+        <v>115</v>
+      </c>
+      <c r="H131" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="23">
+        <v>131</v>
+      </c>
+      <c r="B132" s="23">
+        <v>20</v>
+      </c>
+      <c r="C132" s="23">
+        <v>3</v>
+      </c>
+      <c r="D132" s="23">
+        <v>3</v>
+      </c>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="23">
+        <v>116</v>
+      </c>
+      <c r="H132" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="23">
+        <v>132</v>
+      </c>
+      <c r="B133" s="23">
+        <v>20</v>
+      </c>
+      <c r="C133" s="23">
+        <v>4</v>
+      </c>
+      <c r="D133" s="23">
+        <v>6</v>
+      </c>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23"/>
+      <c r="G133" s="23">
+        <v>117</v>
+      </c>
+      <c r="H133" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="23">
+        <v>133</v>
+      </c>
+      <c r="B134" s="23">
+        <v>20</v>
+      </c>
+      <c r="C134" s="23">
+        <v>7</v>
+      </c>
+      <c r="D134" s="23">
+        <v>10</v>
+      </c>
+      <c r="E134" s="23"/>
+      <c r="F134" s="23"/>
+      <c r="G134" s="23">
+        <v>118</v>
+      </c>
+      <c r="H134" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="23">
+        <v>134</v>
+      </c>
+      <c r="B135" s="23">
+        <v>20</v>
+      </c>
+      <c r="C135" s="23">
+        <v>11</v>
+      </c>
+      <c r="D135" s="23">
+        <v>15</v>
+      </c>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="23">
+        <v>119</v>
+      </c>
+      <c r="H135" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="23">
+        <v>135</v>
+      </c>
+      <c r="B136" s="23">
+        <v>20</v>
+      </c>
+      <c r="C136" s="23">
+        <v>16</v>
+      </c>
+      <c r="D136" s="23">
+        <v>20</v>
+      </c>
+      <c r="E136" s="23"/>
+      <c r="F136" s="23"/>
+      <c r="G136" s="23">
+        <v>120</v>
+      </c>
+      <c r="H136" s="25" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -7438,11 +7922,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G111" sqref="G111"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7450,7 +7934,7 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.375" style="2" customWidth="1"/>
   </cols>
@@ -9568,7 +10052,7 @@
         <v>102</v>
       </c>
       <c r="C107" s="44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D107" s="44" t="s">
         <v>158</v>
@@ -9588,7 +10072,7 @@
         <v>103</v>
       </c>
       <c r="C108" s="44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D108" s="44" t="s">
         <v>158</v>
@@ -9608,7 +10092,7 @@
         <v>104</v>
       </c>
       <c r="C109" s="44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D109" s="44" t="s">
         <v>158</v>
@@ -9628,7 +10112,7 @@
         <v>105</v>
       </c>
       <c r="C110" s="44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D110" s="44" t="s">
         <v>158</v>
@@ -9648,7 +10132,7 @@
         <v>106</v>
       </c>
       <c r="C111" s="44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D111" s="44" t="s">
         <v>158</v>
@@ -9668,7 +10152,7 @@
         <v>107</v>
       </c>
       <c r="C112" s="44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D112" s="44" t="s">
         <v>158</v>
@@ -9688,7 +10172,7 @@
         <v>108</v>
       </c>
       <c r="C113" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D113" s="44" t="s">
         <v>158</v>
@@ -9697,6 +10181,246 @@
         <v>500</v>
       </c>
       <c r="F113" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2">
+        <v>109</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="E114" s="2">
+        <v>5</v>
+      </c>
+      <c r="F114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2">
+        <v>110</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="E115" s="2">
+        <v>3</v>
+      </c>
+      <c r="F115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2">
+        <v>111</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E116" s="2">
+        <v>2</v>
+      </c>
+      <c r="F116" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2">
+        <v>112</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="E117" s="2">
+        <v>5</v>
+      </c>
+      <c r="F117" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2">
+        <v>113</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="E118" s="2">
+        <v>2</v>
+      </c>
+      <c r="F118" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="23">
+        <v>118</v>
+      </c>
+      <c r="B119" s="23">
+        <v>114</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E119" s="23">
+        <v>100000</v>
+      </c>
+      <c r="F119" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="23">
+        <v>119</v>
+      </c>
+      <c r="B120" s="23">
+        <v>115</v>
+      </c>
+      <c r="C120" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D120" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E120" s="23">
+        <v>30000</v>
+      </c>
+      <c r="F120" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="23">
+        <v>120</v>
+      </c>
+      <c r="B121" s="23">
+        <v>116</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E121" s="23">
+        <v>10000</v>
+      </c>
+      <c r="F121" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="23">
+        <v>121</v>
+      </c>
+      <c r="B122" s="23">
+        <v>117</v>
+      </c>
+      <c r="C122" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E122" s="23">
+        <v>3000</v>
+      </c>
+      <c r="F122" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="23">
+        <v>122</v>
+      </c>
+      <c r="B123" s="23">
+        <v>118</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E123" s="23">
+        <v>2000</v>
+      </c>
+      <c r="F123" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="23">
+        <v>123</v>
+      </c>
+      <c r="B124" s="23">
+        <v>119</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D124" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E124" s="23">
+        <v>1000</v>
+      </c>
+      <c r="F124" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="23">
+        <v>124</v>
+      </c>
+      <c r="B125" s="23">
+        <v>120</v>
+      </c>
+      <c r="C125" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E125" s="23">
+        <v>500</v>
+      </c>
+      <c r="F125" s="23">
         <v>1</v>
       </c>
     </row>

--- a/config_12.15/rank_server.xlsx
+++ b/config_12.15/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -990,10 +990,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>12_12_lhsjb_rank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>38</t>
     </r>
@@ -1100,6 +1096,10 @@
   </si>
   <si>
     <t>饺子收集榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>s12_12_lhsjb_rank</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1639,9 +1639,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2394,10 +2394,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E21" s="41">
         <v>1607385600</v>
@@ -2429,10 +2429,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>224</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>225</v>
       </c>
       <c r="E22" s="14">
         <v>1604246400</v>
@@ -2461,10 +2461,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E23" s="46">
         <v>1607990400</v>
@@ -2970,7 +2970,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3473,7 +3473,7 @@
         <v>171</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
@@ -4543,7 +4543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
@@ -4840,7 +4840,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -7670,7 +7670,7 @@
         <v>109</v>
       </c>
       <c r="H125" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I125" s="5"/>
     </row>
@@ -7693,7 +7693,7 @@
         <v>110</v>
       </c>
       <c r="H126" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -10052,7 +10052,7 @@
         <v>102</v>
       </c>
       <c r="C107" s="44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D107" s="44" t="s">
         <v>158</v>
@@ -10072,7 +10072,7 @@
         <v>103</v>
       </c>
       <c r="C108" s="44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D108" s="44" t="s">
         <v>158</v>
@@ -10092,7 +10092,7 @@
         <v>104</v>
       </c>
       <c r="C109" s="44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D109" s="44" t="s">
         <v>158</v>
@@ -10112,7 +10112,7 @@
         <v>105</v>
       </c>
       <c r="C110" s="44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D110" s="44" t="s">
         <v>158</v>
@@ -10132,7 +10132,7 @@
         <v>106</v>
       </c>
       <c r="C111" s="44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D111" s="44" t="s">
         <v>158</v>
@@ -10152,7 +10152,7 @@
         <v>107</v>
       </c>
       <c r="C112" s="44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D112" s="44" t="s">
         <v>158</v>
@@ -10172,7 +10172,7 @@
         <v>108</v>
       </c>
       <c r="C113" s="44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D113" s="44" t="s">
         <v>158</v>
@@ -10192,10 +10192,10 @@
         <v>109</v>
       </c>
       <c r="C114" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D114" s="22" t="s">
         <v>228</v>
-      </c>
-      <c r="D114" s="22" t="s">
-        <v>229</v>
       </c>
       <c r="E114" s="2">
         <v>5</v>
@@ -10212,10 +10212,10 @@
         <v>110</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E115" s="2">
         <v>3</v>
@@ -10232,10 +10232,10 @@
         <v>111</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D116" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E116" s="2">
         <v>2</v>
@@ -10252,10 +10252,10 @@
         <v>112</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E117" s="2">
         <v>5</v>
@@ -10272,10 +10272,10 @@
         <v>113</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D118" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E118" s="2">
         <v>2</v>
@@ -10292,7 +10292,7 @@
         <v>114</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D119" s="24" t="s">
         <v>158</v>
@@ -10312,7 +10312,7 @@
         <v>115</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D120" s="24" t="s">
         <v>158</v>
@@ -10332,7 +10332,7 @@
         <v>116</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D121" s="24" t="s">
         <v>158</v>
@@ -10352,7 +10352,7 @@
         <v>117</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D122" s="24" t="s">
         <v>158</v>
@@ -10372,7 +10372,7 @@
         <v>118</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D123" s="24" t="s">
         <v>158</v>
@@ -10392,7 +10392,7 @@
         <v>119</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D124" s="24" t="s">
         <v>158</v>
@@ -10412,7 +10412,7 @@
         <v>120</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D125" s="24" t="s">
         <v>158</v>

--- a/config_12.15/rank_server.xlsx
+++ b/config_12.15/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="246">
   <si>
     <t>id|</t>
   </si>
@@ -1007,34 +1007,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>10万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3千福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2千福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1千福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5百福利券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>xiaoxiaole_xiyou_award</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1100,6 +1072,62 @@
   </si>
   <si>
     <t>s12_12_lhsjb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>500福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>500福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1639,7 +1667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
@@ -2394,10 +2422,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E21" s="41">
         <v>1607385600</v>
@@ -2429,10 +2457,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E22" s="14">
         <v>1604246400</v>
@@ -2461,10 +2489,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E23" s="46">
         <v>1607990400</v>
@@ -2970,7 +2998,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -4840,7 +4868,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -7670,7 +7698,7 @@
         <v>109</v>
       </c>
       <c r="H125" s="22" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I125" s="5"/>
     </row>
@@ -7693,7 +7721,7 @@
         <v>110</v>
       </c>
       <c r="H126" s="22" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7924,9 +7952,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D127" sqref="D127"/>
+      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10052,7 +10080,7 @@
         <v>102</v>
       </c>
       <c r="C107" s="44" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="D107" s="44" t="s">
         <v>158</v>
@@ -10072,7 +10100,7 @@
         <v>103</v>
       </c>
       <c r="C108" s="44" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="D108" s="44" t="s">
         <v>158</v>
@@ -10092,7 +10120,7 @@
         <v>104</v>
       </c>
       <c r="C109" s="44" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D109" s="44" t="s">
         <v>158</v>
@@ -10112,7 +10140,7 @@
         <v>105</v>
       </c>
       <c r="C110" s="44" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="D110" s="44" t="s">
         <v>158</v>
@@ -10132,7 +10160,7 @@
         <v>106</v>
       </c>
       <c r="C111" s="44" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="D111" s="44" t="s">
         <v>158</v>
@@ -10152,7 +10180,7 @@
         <v>107</v>
       </c>
       <c r="C112" s="44" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D112" s="44" t="s">
         <v>158</v>
@@ -10172,7 +10200,7 @@
         <v>108</v>
       </c>
       <c r="C113" s="44" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="D113" s="44" t="s">
         <v>158</v>
@@ -10192,10 +10220,10 @@
         <v>109</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D114" s="22" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E114" s="2">
         <v>5</v>
@@ -10212,10 +10240,10 @@
         <v>110</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E115" s="2">
         <v>3</v>
@@ -10232,10 +10260,10 @@
         <v>111</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D116" s="22" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E116" s="2">
         <v>2</v>
@@ -10252,10 +10280,10 @@
         <v>112</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E117" s="2">
         <v>5</v>
@@ -10272,10 +10300,10 @@
         <v>113</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D118" s="22" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E118" s="2">
         <v>2</v>
@@ -10291,8 +10319,8 @@
       <c r="B119" s="23">
         <v>114</v>
       </c>
-      <c r="C119" s="24" t="s">
-        <v>215</v>
+      <c r="C119" s="44" t="s">
+        <v>241</v>
       </c>
       <c r="D119" s="24" t="s">
         <v>158</v>
@@ -10311,8 +10339,8 @@
       <c r="B120" s="23">
         <v>115</v>
       </c>
-      <c r="C120" s="24" t="s">
-        <v>216</v>
+      <c r="C120" s="44" t="s">
+        <v>242</v>
       </c>
       <c r="D120" s="24" t="s">
         <v>158</v>
@@ -10331,8 +10359,8 @@
       <c r="B121" s="23">
         <v>116</v>
       </c>
-      <c r="C121" s="24" t="s">
-        <v>217</v>
+      <c r="C121" s="44" t="s">
+        <v>243</v>
       </c>
       <c r="D121" s="24" t="s">
         <v>158</v>
@@ -10351,8 +10379,8 @@
       <c r="B122" s="23">
         <v>117</v>
       </c>
-      <c r="C122" s="24" t="s">
-        <v>218</v>
+      <c r="C122" s="44" t="s">
+        <v>244</v>
       </c>
       <c r="D122" s="24" t="s">
         <v>158</v>
@@ -10371,8 +10399,8 @@
       <c r="B123" s="23">
         <v>118</v>
       </c>
-      <c r="C123" s="24" t="s">
-        <v>219</v>
+      <c r="C123" s="44" t="s">
+        <v>236</v>
       </c>
       <c r="D123" s="24" t="s">
         <v>158</v>
@@ -10391,8 +10419,8 @@
       <c r="B124" s="23">
         <v>119</v>
       </c>
-      <c r="C124" s="24" t="s">
-        <v>220</v>
+      <c r="C124" s="44" t="s">
+        <v>245</v>
       </c>
       <c r="D124" s="24" t="s">
         <v>158</v>
@@ -10411,8 +10439,8 @@
       <c r="B125" s="23">
         <v>120</v>
       </c>
-      <c r="C125" s="24" t="s">
-        <v>221</v>
+      <c r="C125" s="44" t="s">
+        <v>239</v>
       </c>
       <c r="D125" s="24" t="s">
         <v>158</v>
